--- a/biology/Médecine/François-Alexandre_Neuhaus/François-Alexandre_Neuhaus.xlsx
+++ b/biology/Médecine/François-Alexandre_Neuhaus/François-Alexandre_Neuhaus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Alexandre_Neuhaus</t>
+          <t>François-Alexandre_Neuhaus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François-Alexandre Neuhaus, né le 2 juin 1747 à Bienne et décédé le 17 janvier 1803 dans la même ville, est un médecin suisse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Alexandre_Neuhaus</t>
+          <t>François-Alexandre_Neuhaus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">François-Alexandre Neuhaus, fis d'un médecin, entreprend des études de médecine à Strasbourg et Paris entre 1762 et 1765[1]. Il obtient son doctorat en 1770 puis exerce comme médecin de la ville de Bienne de 1767 à 1788[1].
-François-Alexandre Neuhaus fut professeur à la faculté de médecine de Nantes de 1788 à 1791 et termina sa carrière médicale à Berne[1]. Membre du Grand (1783) et du Petit Conseil (1796) de Bienne, secrétaire de la ville (1792-1797), il fut chargé d'une mission diplomatique auprès du Directoire à Paris en 1796[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François-Alexandre Neuhaus, fis d'un médecin, entreprend des études de médecine à Strasbourg et Paris entre 1762 et 1765. Il obtient son doctorat en 1770 puis exerce comme médecin de la ville de Bienne de 1767 à 1788.
+François-Alexandre Neuhaus fut professeur à la faculté de médecine de Nantes de 1788 à 1791 et termina sa carrière médicale à Berne. Membre du Grand (1783) et du Petit Conseil (1796) de Bienne, secrétaire de la ville (1792-1797), il fut chargé d'une mission diplomatique auprès du Directoire à Paris en 1796. 
 </t>
         </is>
       </c>
